--- a/biology/Botanique/Nolana_humifusa/Nolana_humifusa.xlsx
+++ b/biology/Botanique/Nolana_humifusa/Nolana_humifusa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La nolane couchée - Nolana humifusa - est une plante de la famille des Solanacées originaire d'Amérique du sud.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La nolane couchée est une petite plante rampante, à feuilles alternes et légèrement succulentes. Il s'agit d'une plante annuelle en France (mais vivace en serre).
 La fleur, avec un calice à cinq lobes, une corolle en entonnoir très évasé, compte cinq étamines. Sa couleur va du blanc azuré au bleu plus soutenu (avec une couleur plus marquée au milieu de la corolle). Elle compte cinq ovaires à quatre locules, chaque locule contenant une graine.
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Nolane couchée est originaire du Pérou.
 Son utilisation ornementale, comme plante annuelle couvre-sol, l'a diffusée dans de nombreuses régions tempérées. Elle a quelques variétés horticoles dont Nolana humifusa 'Little Bells'.
@@ -575,7 +591,9 @@
           <t>Position taxinomique et historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est l'espèce type du genre Nolana et fait partie de la sous-famille des Solanoideae.
 Carl von Linné le Jeune décrit le genre en 1762 avec comme espèce-type Nolana prostrata, espèce déjà décrite quelques mois auparavant par Antoine Gouan en sous le nom de Atropa humifusa.
@@ -586,7 +604,7 @@
 Atropa humifusa Gouan
 Nolana coronata Ruiz &amp; Pav.
 Nolana gallinacea Pers.
-Nolana parviflora (I.M.Johnst.) I.M.Johnst.[1]
+Nolana parviflora (I.M.Johnst.) I.M.Johnst.
 Nolana parvifolia Phil.
 Nolana polymorpha Gaudich.
 Nolana prostrata L.f.
@@ -610,7 +628,7 @@
 Nolana guentheri I.M.Johnst.
 Nolana pallidula I.M.Johnst.
 Nolana spathulata Ruiz &amp; Pav.
-Osteocarpus spathulatus (Ruiz &amp; Pav.) Phil.[2]
+Osteocarpus spathulatus (Ruiz &amp; Pav.) Phil.
 			Floraison
 			Fleurs
 			Fleur
